--- a/UM5MES02.xlsx
+++ b/UM5MES02.xlsx
@@ -396,23 +396,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,55 +420,55 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,9 +556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8920800</xdr:colOff>
+      <xdr:colOff>8920440</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,7 +572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16230600"/>
-          <a:ext cx="12729600" cy="3921480"/>
+          <a:ext cx="12729240" cy="3921120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,8 +767,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
